--- a/level2_test.xlsx
+++ b/level2_test.xlsx
@@ -155,13 +155,13 @@
     <t>concentrationFlag</t>
   </si>
   <si>
-    <t>concentration flag 1 valid 0 invalid for this taxon when IFCB triggering only on chlorophyll fluorescence</t>
-  </si>
-  <si>
     <t>Unique URL identifier pointing to the landing page for the sample in an external repository. This is used to generate the eventID corresponding to Darwin Core term http://rs.tdwg.org/dwc/terms/eventID</t>
   </si>
   <si>
     <t>higherClassification_group_manual</t>
+  </si>
+  <si>
+    <t>flag 0 concentration may be invalid or 1 concentration likely valid for this taxon when IFCB triggering only on chlorophyll fluorescence</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
@@ -676,7 +676,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>

--- a/level2_test.xlsx
+++ b/level2_test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
+    <sheet name="CategoricalVariables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>attributeName</t>
   </si>
@@ -158,10 +159,46 @@
     <t>Unique URL identifier pointing to the landing page for the sample in an external repository. This is used to generate the eventID corresponding to Darwin Core term http://rs.tdwg.org/dwc/terms/eventID</t>
   </si>
   <si>
-    <t>higherClassification_group_manual</t>
-  </si>
-  <si>
     <t>flag 0 concentration may be invalid or 1 concentration likely valid for this taxon when IFCB triggering only on chlorophyll fluorescence</t>
+  </si>
+  <si>
+    <t>higherClassification_group</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>Bacillariophyceae</t>
+  </si>
+  <si>
+    <t>urn:lsid:marinespecies.org:taxname:148899</t>
+  </si>
+  <si>
+    <t>Dinoflagellata</t>
+  </si>
+  <si>
+    <t>urn:lsid:marinespecies.org:taxname:146203</t>
+  </si>
+  <si>
+    <t>Haptophyta</t>
+  </si>
+  <si>
+    <t>urn:lsid:marinespecies.org:taxname:369190</t>
+  </si>
+  <si>
+    <t>other than diatoms dinoflagellates or haptophytes</t>
+  </si>
+  <si>
+    <t>taxon that can not be classified under any of the 3 listed higher level phytoplankton groups</t>
   </si>
 </sst>
 </file>
@@ -492,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,19 +633,19 @@
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -676,7 +713,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -775,4 +812,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/level2_test.xlsx
+++ b/level2_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>attributeName</t>
   </si>
@@ -84,9 +84,6 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>permalink</t>
-  </si>
-  <si>
     <t>data_provider_category_HumanObservation</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>YYYY-MM-DD hh:mm:ss</t>
   </si>
   <si>
-    <t>Count for all ROIs in a data provider category per sample. URI http://vocab.nerc.ac.uk/collection/P02/current/PATX/</t>
-  </si>
-  <si>
     <t>cubicMicrometers</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>concentrationFlag</t>
   </si>
   <si>
-    <t>Unique URL identifier pointing to the landing page for the sample in an external repository. This is used to generate the eventID corresponding to Darwin Core term http://rs.tdwg.org/dwc/terms/eventID</t>
-  </si>
-  <si>
     <t>flag 0 concentration may be invalid or 1 concentration likely valid for this taxon when IFCB triggering only on chlorophyll fluorescence</t>
   </si>
   <si>
@@ -199,6 +190,21 @@
   </si>
   <si>
     <t>taxon that can not be classified under any of the 3 listed higher level phytoplankton groups</t>
+  </si>
+  <si>
+    <t>Count for all ROIs in a data provider category per sample. This term corresponds to URI http://vocab.nerc.ac.uk/collection/P02/current/PATX/ however can also be matched to Darwin Core organismQuantity</t>
+  </si>
+  <si>
+    <t>associatedMedia</t>
+  </si>
+  <si>
+    <t>eventID</t>
+  </si>
+  <si>
+    <t>Darwin Core unique identifier for the sample as an Event (http://rs.tdwg.org/dwc/terms/eventID)</t>
+  </si>
+  <si>
+    <t>Unique URL identifier pointing to the landing page for the sample in an external repository. Darwin Core term http://rs.tdwg.org/dwc/terms/associatedMedia. This is used to generate the eventID.</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,12 +569,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -582,10 +588,10 @@
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -599,67 +605,67 @@
     </row>
     <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -670,16 +676,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -690,16 +696,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -710,16 +716,16 @@
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>18</v>
@@ -733,13 +739,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -753,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -773,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -805,6 +811,23 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -818,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -826,57 +849,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
